--- a/20230605_RPC/450_RFC1057_A1_Port_Mapper_Protocol_Specification.xlsx
+++ b/20230605_RPC/450_RFC1057_A1_Port_Mapper_Protocol_Specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230605_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614BBE0-7341-4B56-829B-0DE6F62B335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7725436-BA16-4F4F-8F78-46857839EE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43725" yWindow="4830" windowWidth="17595" windowHeight="14010" xr2:uid="{3A0A1FB2-3300-4755-B754-C66B0660FE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A0A1FB2-3300-4755-B754-C66B0660FE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,35 +189,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PMAP_PROG (=10000)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PMAP_VERS (=2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PMAPPROC_GETPORT (=3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;-------- 24  --------&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">CALL (=0) </t>
+    <t>0 (=SUCCESS)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>REPLY (=1)</t>
+    <t>1 (=REPLY)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SUCCESS (=0)</t>
+    <t xml:space="preserve"> 0 (=MSG_ACCEPTED)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSG_ACCEPTED (=0)</t>
+    <t xml:space="preserve">0 (=CALL) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000 (=PMAP_PROG)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 (=PMAP_VERS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 (=PMAPPROC_GETPORT)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -908,6 +908,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -917,24 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,87 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2746,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FDC310-D93C-4645-9EA7-BA0D3554B9A0}">
   <dimension ref="B1:BR51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM37" sqref="AM37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2815,82 +2815,82 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>52</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="35"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
     </row>
     <row r="7" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="10" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2898,521 +2898,521 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="11"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="44"/>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="40">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="11"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="44"/>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="11"/>
+      <c r="C10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="44"/>
     </row>
     <row r="11" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="11"/>
+      <c r="C11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="44"/>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="11"/>
+      <c r="C12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="44"/>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="46">
         <v>0</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="11"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="44"/>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="49">
         <v>0</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="11"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="44"/>
     </row>
     <row r="15" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="46">
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="11"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="44"/>
     </row>
     <row r="16" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="52">
         <v>0</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="11"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="44"/>
     </row>
     <row r="17" spans="2:70" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="11"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="44"/>
     </row>
     <row r="18" spans="2:70" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="11"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="44"/>
     </row>
     <row r="19" spans="2:70" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="11"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="44"/>
     </row>
     <row r="20" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="55">
         <v>0</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="12"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="45"/>
     </row>
     <row r="21" spans="2:70" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
@@ -3482,79 +3482,79 @@
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="35"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="30"/>
     </row>
     <row r="29" spans="2:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="42" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3562,241 +3562,241 @@
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="43"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="15"/>
     </row>
     <row r="31" spans="2:70" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="43"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="2:70" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="50"/>
-      <c r="AI32" s="43"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="15"/>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="43"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="15"/>
     </row>
     <row r="34" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="43"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="15"/>
     </row>
     <row r="35" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="44"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="16"/>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
@@ -3864,325 +3864,325 @@
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="10">
         <v>1</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="29">
         <v>24</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="35"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="30"/>
       <c r="AI43" s="8"/>
     </row>
     <row r="44" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="39" t="s">
-        <v>37</v>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="40"/>
+      <c r="C45" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="12"/>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
-      <c r="AH46" s="47"/>
-      <c r="AI46" s="40"/>
+      <c r="C46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="12"/>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="20">
         <v>0</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="49"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="49"/>
-      <c r="AF47" s="49"/>
-      <c r="AG47" s="49"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="40"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="12"/>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="23">
         <v>0</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="40"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="12"/>
     </row>
     <row r="49" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="40"/>
+      <c r="C49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="38"/>
-      <c r="AI50" s="41"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="13"/>
     </row>
     <row r="51" spans="2:35" x14ac:dyDescent="0.4">
       <c r="AH51" s="7" t="s">
@@ -4191,6 +4191,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AI7:AI20"/>
+    <mergeCell ref="C7:AH7"/>
+    <mergeCell ref="C8:AH8"/>
+    <mergeCell ref="C9:AH9"/>
+    <mergeCell ref="C10:AH10"/>
+    <mergeCell ref="C11:AH11"/>
+    <mergeCell ref="C12:AH12"/>
+    <mergeCell ref="C13:AH13"/>
+    <mergeCell ref="C14:AH14"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="C16:AH16"/>
+    <mergeCell ref="C19:AH19"/>
+    <mergeCell ref="C20:AH20"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="C44:AH44"/>
+    <mergeCell ref="C45:AH45"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="D6:AH6"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:Z27"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="C35:AH35"/>
+    <mergeCell ref="D28:AH28"/>
+    <mergeCell ref="C29:AH29"/>
+    <mergeCell ref="C30:AH30"/>
     <mergeCell ref="AI44:AI50"/>
     <mergeCell ref="AI29:AI35"/>
     <mergeCell ref="C46:AH46"/>
@@ -4207,36 +4237,6 @@
     <mergeCell ref="S42:Z42"/>
     <mergeCell ref="AA42:AH42"/>
     <mergeCell ref="C50:AH50"/>
-    <mergeCell ref="C44:AH44"/>
-    <mergeCell ref="C45:AH45"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="D6:AH6"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="S27:Z27"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="C35:AH35"/>
-    <mergeCell ref="D28:AH28"/>
-    <mergeCell ref="C29:AH29"/>
-    <mergeCell ref="C30:AH30"/>
-    <mergeCell ref="AI7:AI20"/>
-    <mergeCell ref="C7:AH7"/>
-    <mergeCell ref="C8:AH8"/>
-    <mergeCell ref="C9:AH9"/>
-    <mergeCell ref="C10:AH10"/>
-    <mergeCell ref="C11:AH11"/>
-    <mergeCell ref="C12:AH12"/>
-    <mergeCell ref="C13:AH13"/>
-    <mergeCell ref="C14:AH14"/>
-    <mergeCell ref="C15:AH15"/>
-    <mergeCell ref="C16:AH16"/>
-    <mergeCell ref="C19:AH19"/>
-    <mergeCell ref="C20:AH20"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="C17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
